--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_27.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_27.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_1</t>
+          <t>model_1_27_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998715765887384</v>
+        <v>0.9337769773545336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8294218240477167</v>
+        <v>0.7500509594610761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8236412015349854</v>
+        <v>0.6600694531276106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999196577340212</v>
+        <v>0.9228694003818373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005345658778747701</v>
+        <v>0.2756550997067112</v>
       </c>
       <c r="G2" t="n">
-        <v>1.140657048033197</v>
+        <v>1.671410384993289</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6308251962386805</v>
+        <v>1.215911855856946</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004745336869999846</v>
+        <v>0.2943214713602511</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07233990392300642</v>
+        <v>1.512724122684269</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02312068073986513</v>
+        <v>0.5250286656047565</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008219098320744</v>
+        <v>0.9098239691636202</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02348480834931654</v>
+        <v>0.5332973422519148</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0681111673825</v>
+        <v>36.57720966691674</v>
       </c>
       <c r="O2" t="n">
-        <v>286.4032837105989</v>
+        <v>73.54179325514257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_0</t>
+          <t>model_1_27_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998698648162083</v>
+        <v>0.9338327182609063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8293787987487898</v>
+        <v>0.7500266712755912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8236497758001093</v>
+        <v>0.6602149920295628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999920126469048</v>
+        <v>0.9224351112830288</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005416911767303149</v>
+        <v>0.2754230766958293</v>
       </c>
       <c r="G3" t="n">
-        <v>1.140944758405234</v>
+        <v>1.671572800201463</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6307945265894968</v>
+        <v>1.215391271643493</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004717651496956511</v>
+        <v>0.2959786684673631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07231825850142053</v>
+        <v>1.51215626291468</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02327425996095934</v>
+        <v>0.5248076568570902</v>
       </c>
       <c r="L3" t="n">
-        <v>1.008328651762668</v>
+        <v>0.9098998716744257</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02364080628962009</v>
+        <v>0.5330728528374006</v>
       </c>
       <c r="N3" t="n">
-        <v>145.041629007088</v>
+        <v>36.57889380564353</v>
       </c>
       <c r="O3" t="n">
-        <v>286.3768015503044</v>
+        <v>73.54347739386935</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998788867912003</v>
+        <v>0.9338851429564553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8292488251911789</v>
+        <v>0.7500013709897785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8235891850663817</v>
+        <v>0.660355900963971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999055985035998</v>
+        <v>0.9219969790577242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005041369649679856</v>
+        <v>0.2752048575010331</v>
       </c>
       <c r="G4" t="n">
-        <v>1.141813892183452</v>
+        <v>1.67174198332919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6310112561307878</v>
+        <v>1.214887248555484</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005575731478240477</v>
+        <v>0.2976505305018912</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06996659831984373</v>
+        <v>1.511595934981268</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02245299456571407</v>
+        <v>0.5245997116859988</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007751245363181</v>
+        <v>0.9099712584938966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02280660678536391</v>
+        <v>0.5328616327377335</v>
       </c>
       <c r="N4" t="n">
-        <v>145.185325141846</v>
+        <v>36.5804790445511</v>
       </c>
       <c r="O4" t="n">
-        <v>286.5204976850624</v>
+        <v>73.54506263277692</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998791802826181</v>
+        <v>0.9339343763328484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8289559812381944</v>
+        <v>0.7499752228968554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.823617015522879</v>
+        <v>0.660492762089737</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998808088381443</v>
+        <v>0.9215553514700915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005029152991055877</v>
+        <v>0.2749999222574218</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143772141045482</v>
+        <v>1.671916835746968</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6309117082015994</v>
+        <v>1.214397704244284</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007039908671253792</v>
+        <v>0.2993357304358837</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06966622908931211</v>
+        <v>1.51104177289752</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02242577309939588</v>
+        <v>0.5244043499604306</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00773246191244</v>
+        <v>0.9100382996872829</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02277895660816269</v>
+        <v>0.5326631942602775</v>
       </c>
       <c r="N5" t="n">
-        <v>145.1901775869683</v>
+        <v>36.58196892803178</v>
       </c>
       <c r="O5" t="n">
-        <v>286.5253501301847</v>
+        <v>73.54655251625761</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999883307187587</v>
+        <v>0.933980516000862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8288084312670941</v>
+        <v>0.7499481235150763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8236114573316857</v>
+        <v>0.6606255603396807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998605733042002</v>
+        <v>0.9211103185820331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004857369469976506</v>
+        <v>0.2748078646575323</v>
       </c>
       <c r="G6" t="n">
-        <v>1.144758808381634</v>
+        <v>1.672098049437706</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6309315895292151</v>
+        <v>1.21392269260432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0008235100568564679</v>
+        <v>0.3010339246035099</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06601423870021039</v>
+        <v>1.510494437791342</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02203944071426611</v>
+        <v>0.5242211982145822</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007468339994432</v>
+        <v>0.9101011281713864</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02238653987415783</v>
+        <v>0.5324771580575166</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2596866838406</v>
+        <v>36.58336619894916</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5948592270569</v>
+        <v>73.54794978717499</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998841617340503</v>
+        <v>0.934023602165273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.828615048582368</v>
+        <v>0.7499202269217755</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8233612718794718</v>
+        <v>0.6607544806740315</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998342590735354</v>
+        <v>0.9206618622646153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004821798745307306</v>
+        <v>0.2746285173479071</v>
       </c>
       <c r="G7" t="n">
-        <v>1.146051959284843</v>
+        <v>1.67228459408556</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6318264883851984</v>
+        <v>1.213461552043578</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009789324705242678</v>
+        <v>0.3027451821826884</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06341781658536139</v>
+        <v>1.509953168019961</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02195859454816566</v>
+        <v>0.5240501095772303</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007413649020783</v>
+        <v>0.9101597986931378</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02230442046175782</v>
+        <v>0.5323033749451522</v>
       </c>
       <c r="N7" t="n">
-        <v>145.2743866597113</v>
+        <v>36.58467188107629</v>
       </c>
       <c r="O7" t="n">
-        <v>286.6095592029278</v>
+        <v>73.54925546930211</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998787235237689</v>
+        <v>0.934063778948787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8284604647610169</v>
+        <v>0.7498914616254133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8231445470900544</v>
+        <v>0.660879394910683</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998141115783761</v>
+        <v>0.9202103857209876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005048165700096331</v>
+        <v>0.274461280413937</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147085662010011</v>
+        <v>1.672476947754787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6326017003905194</v>
+        <v>1.213014741062019</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001097931667836885</v>
+        <v>0.3044679645967109</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06532441942438078</v>
+        <v>1.509418751980706</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02246812341985047</v>
+        <v>0.5238905233099154</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007761694478788</v>
+        <v>0.9102145075047312</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02282197390382966</v>
+        <v>0.532141275353655</v>
       </c>
       <c r="N8" t="n">
-        <v>145.1826308447515</v>
+        <v>36.58589016588014</v>
       </c>
       <c r="O8" t="n">
-        <v>286.5178033879679</v>
+        <v>73.55047375410597</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998642748479879</v>
+        <v>0.9341010432679252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8282160757418993</v>
+        <v>0.7498619697282319</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8232358885713925</v>
+        <v>0.661000914821557</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997597032297189</v>
+        <v>0.9197559336122595</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005649595686819208</v>
+        <v>0.2743061666906851</v>
       </c>
       <c r="G9" t="n">
-        <v>1.148719892506159</v>
+        <v>1.672674160207036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6322749772080563</v>
+        <v>1.212580071386952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001419289224502282</v>
+        <v>0.3062021014239333</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06775743986379537</v>
+        <v>1.508904093192474</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02376887815362603</v>
+        <v>0.5237424621803021</v>
       </c>
       <c r="L9" t="n">
-        <v>1.008686409728774</v>
+        <v>0.9102652504073875</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02414321422438449</v>
+        <v>0.531990882409257</v>
       </c>
       <c r="N9" t="n">
-        <v>144.9575127784667</v>
+        <v>36.58702079947149</v>
       </c>
       <c r="O9" t="n">
-        <v>286.2926853216832</v>
+        <v>73.55160438769731</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998654246852675</v>
+        <v>0.9341355606872017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8281898972591085</v>
+        <v>0.7498317316887595</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8231463770288268</v>
+        <v>0.6611188336895255</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997595585903442</v>
+        <v>0.9192986528792717</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005601733403086161</v>
+        <v>0.2741624870114406</v>
       </c>
       <c r="G10" t="n">
-        <v>1.148894948141121</v>
+        <v>1.672876362116222</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6325951548056364</v>
+        <v>1.212158282433557</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001420143522734235</v>
+        <v>0.3079470319550577</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06751113840845123</v>
+        <v>1.50839942862645</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0236679813315081</v>
+        <v>0.5236052778682054</v>
       </c>
       <c r="L10" t="n">
-        <v>1.008612820142879</v>
+        <v>0.9103122528506576</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02404072837817802</v>
+        <v>0.5318515375813788</v>
       </c>
       <c r="N10" t="n">
-        <v>144.9745285717323</v>
+        <v>36.58806866014</v>
       </c>
       <c r="O10" t="n">
-        <v>286.3097011149487</v>
+        <v>73.55265224836582</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998624270247312</v>
+        <v>0.9342472542397934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8281608176156513</v>
+        <v>0.7497040416817071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8231116381956958</v>
+        <v>0.6615576624361146</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997465475850497</v>
+        <v>0.9174439966040764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005726511823194816</v>
+        <v>0.2736975596169138</v>
       </c>
       <c r="G11" t="n">
-        <v>1.149089403850819</v>
+        <v>1.67373022578134</v>
       </c>
       <c r="H11" t="n">
-        <v>0.632719413597473</v>
+        <v>1.210588617451761</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001496991745008932</v>
+        <v>0.3150241863721804</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06768413179832179</v>
+        <v>1.506441777899478</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02393013126415068</v>
+        <v>0.5231611220426398</v>
       </c>
       <c r="L11" t="n">
-        <v>1.008804670417206</v>
+        <v>0.9104643461988676</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02430700691020592</v>
+        <v>0.5314003867455535</v>
       </c>
       <c r="N11" t="n">
-        <v>144.9304675669535</v>
+        <v>36.59146315849041</v>
       </c>
       <c r="O11" t="n">
-        <v>286.26564011017</v>
+        <v>73.55604674671623</v>
       </c>
     </row>
   </sheetData>
